--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,144 +9,137 @@
   <sheets>
     <sheet name="device1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>com.tencent.qqmail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wap浏览器名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safari</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通信端口</t>
+    <t>系统版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdkVersion</t>
+  </si>
+  <si>
+    <t>手机设备ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone 4S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>手机设备名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>717b309ec40653ad165a2d00635d982ef774f476</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>app运行平台:安卓，IOS</t>
+  </si>
+  <si>
+    <t>iOS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>platformName</t>
+  </si>
+  <si>
+    <t>nodeURL</t>
+  </si>
+  <si>
+    <t>手机名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>driverName</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bundleId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
+    <t>测试应用bundleId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bootstrapPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wap浏览器名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safari</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.3.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdkVersion</t>
-  </si>
-  <si>
-    <t>手机设备ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone 4S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceName</t>
-  </si>
-  <si>
-    <t>手机设备名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>717b309ec40653ad165a2d00635d982ef774f476</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app运行平台:安卓，IOS</t>
-  </si>
-  <si>
-    <t>iOS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>platformName</t>
-  </si>
-  <si>
-    <t>appium-server 地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:4723</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodeURL</t>
-  </si>
-  <si>
-    <t>手机名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>device5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>driverName</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bundleId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试应用bundleId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>device1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,57 +323,61 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,7 +391,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -453,7 +450,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -471,6 +468,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -478,15 +484,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -499,7 +496,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -522,8 +519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
     <tableColumn id="2" name="name" dataDxfId="2"/>
@@ -535,7 +532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -609,7 +606,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -644,7 +640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -820,14 +815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -836,148 +831,134 @@
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -14,124 +14,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>com.tencent.qqmail</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>wap浏览器名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safari</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>wap浏览器名称</t>
+    <t>系统版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdkVersion</t>
+  </si>
+  <si>
+    <t>iphone 4S</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Safari</t>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>717b309ec40653ad165a2d00635d982ef774f476</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>browser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
+    <t>UDID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9.3.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdkVersion</t>
-  </si>
-  <si>
-    <t>手机设备ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone 4S</t>
+    <t>iOS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>platformName</t>
+  </si>
+  <si>
+    <t>nodeURL</t>
+  </si>
+  <si>
+    <t>手机名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>driverName</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>device1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>app运行平台:iOS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>deviceName</t>
-  </si>
-  <si>
-    <t>手机设备名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>717b309ec40653ad165a2d00635d982ef774f476</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>app运行平台:安卓，IOS</t>
-  </si>
-  <si>
-    <t>iOS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>platformName</t>
-  </si>
-  <si>
-    <t>nodeURL</t>
-  </si>
-  <si>
-    <t>手机名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>driverName</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bundleId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试应用bundleId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>device1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>手机设备UDID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,17 +238,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -323,61 +309,56 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,8 +500,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
     <tableColumn id="2" name="name" dataDxfId="2"/>
@@ -816,149 +796,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>19</v>
+      <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>17</v>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>27</v>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -364,7 +364,29 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -490,7 +512,12 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -500,12 +527,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D8" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="3"/>
-    <tableColumn id="2" name="name" dataDxfId="2"/>
-    <tableColumn id="3" name="value" dataDxfId="1"/>
-    <tableColumn id="4" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" name="name" dataDxfId="4"/>
+    <tableColumn id="3" name="value" dataDxfId="3"/>
+    <tableColumn id="4" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -799,7 +826,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumXM/devices/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="device1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,101 +45,101 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>9.3.5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>sdkVersion</t>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>UDID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>platformName</t>
+  </si>
+  <si>
+    <t>nodeURL</t>
+  </si>
+  <si>
+    <t>手机名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>driverName</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>device1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>app运行平台:iOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机设备UDID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>iphone 4S</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>deviceName</t>
-  </si>
-  <si>
-    <t>717b309ec40653ad165a2d00635d982ef774f476</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>iOS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>platformName</t>
-  </si>
-  <si>
-    <t>nodeURL</t>
-  </si>
-  <si>
-    <t>手机名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>driverName</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>device1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>app运行平台:iOS</t>
+    <t>83a39225b78b8e8591ec408a254b9462f0638dcd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>手机设备UDID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机名称</t>
+    <t>10.2.1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,7 +147,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,21 +155,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -170,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -178,7 +191,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -313,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -359,12 +372,142 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -387,135 +530,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -527,12 +546,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D8" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" name="name" dataDxfId="4"/>
-    <tableColumn id="3" name="value" dataDxfId="3"/>
-    <tableColumn id="4" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" name="name" dataDxfId="2"/>
+    <tableColumn id="3" name="value" dataDxfId="1"/>
+    <tableColumn id="4" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,12 +600,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -613,14 +632,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -647,6 +667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,121 +843,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>

--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="20060" windowHeight="10740"/>
   </bookViews>
   <sheets>
-    <sheet name="device1" sheetId="4" r:id="rId1"/>
+    <sheet name="device1" sheetId="5" r:id="rId1"/>
+    <sheet name="device2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>wap浏览器名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -116,11 +117,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>83a39225b78b8e8591ec408a254b9462f0638dcd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.2.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>device2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>717b309ec40653ad165a2d00635d982ef774f476</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -376,6 +389,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,7 +399,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -509,6 +525,130 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -533,8 +673,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -546,6 +686,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_64" displayName="表1_64" ref="A1:D8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <tableColumns count="4">
+    <tableColumn id="1" name="序号" dataDxfId="10"/>
+    <tableColumn id="2" name="name" dataDxfId="9"/>
+    <tableColumn id="3" name="value" dataDxfId="8"/>
+    <tableColumn id="4" name="备注" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_6" displayName="表1_6" ref="A1:D8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
@@ -847,7 +999,143 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -880,8 +1168,8 @@
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>17</v>
+      <c r="C2" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -922,9 +1210,7 @@
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
@@ -937,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>21</v>
@@ -951,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
